--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-515888.7421626977</v>
+        <v>-518525.6977802214</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>97.62647742685859</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8064735376934</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>146.2177502975557</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>90.40230593682804</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>92.91194142051214</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>198.9696458253264</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>40.49636196424245</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>219.0503360287478</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>312.536845001692</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>63.31863205490841</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>21.40427796040014</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>124.9565808886654</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>47.84205650381972</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>22.04658882052576</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>25.78734729249591</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>53.07327741456007</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>101.9154861872836</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>83.53432244437066</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002291</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1412.134398099142</v>
+        <v>891.5908846145762</v>
       </c>
       <c r="C2" t="n">
-        <v>1043.17188115873</v>
+        <v>891.5908846145762</v>
       </c>
       <c r="D2" t="n">
-        <v>684.90618255198</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="E2" t="n">
-        <v>299.1179299537358</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="F2" t="n">
-        <v>292.1724292045323</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>292.1724292045323</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,10 +4328,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139076</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y2" t="n">
-        <v>1798.734238163264</v>
+        <v>990.2034880760496</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4407,25 +4407,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2262.298126874724</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1399.720504392483</v>
+        <v>1569.754372656559</v>
       </c>
       <c r="C4" t="n">
-        <v>1399.720504392483</v>
+        <v>1569.754372656559</v>
       </c>
       <c r="D4" t="n">
-        <v>1399.720504392483</v>
+        <v>1419.637733244223</v>
       </c>
       <c r="E4" t="n">
-        <v>1399.720504392483</v>
+        <v>1271.72463966183</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392483</v>
+        <v>1124.834692163919</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936614</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
         <v>1002.60916787878</v>
@@ -4492,7 +4492,7 @@
         <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
         <v>1750.112669035317</v>
@@ -4510,28 +4510,28 @@
         <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075599</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>2171.811713533348</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>2171.811713533348</v>
+        <v>2273.220990903993</v>
       </c>
       <c r="V4" t="n">
-        <v>1917.127225327461</v>
+        <v>2018.536502698106</v>
       </c>
       <c r="W4" t="n">
-        <v>1627.710055290501</v>
+        <v>2018.536502698106</v>
       </c>
       <c r="X4" t="n">
-        <v>1399.720504392483</v>
+        <v>1790.546951800089</v>
       </c>
       <c r="Y4" t="n">
-        <v>1399.720504392483</v>
+        <v>1569.754372656559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1621.991392838317</v>
+        <v>864.8611267254491</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.991392838317</v>
+        <v>864.8611267254491</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>864.8611267254491</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>864.8611267254491</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>2361.359888172552</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W5" t="n">
-        <v>2008.591232902438</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.591232902438</v>
+        <v>1251.460966789571</v>
       </c>
       <c r="Y5" t="n">
-        <v>2008.591232902438</v>
+        <v>1251.460966789571</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>644.9053651971361</v>
+        <v>388.8041944123875</v>
       </c>
       <c r="C7" t="n">
-        <v>644.9053651971361</v>
+        <v>388.8041944123875</v>
       </c>
       <c r="D7" t="n">
-        <v>494.7887257848004</v>
+        <v>388.8041944123875</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>240.8911008299943</v>
       </c>
       <c r="F7" t="n">
         <v>199.9856847044969</v>
@@ -4717,58 +4717,58 @@
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>1115.971000064337</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W7" t="n">
-        <v>826.5538300273759</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X7" t="n">
-        <v>826.5538300273759</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="Y7" t="n">
-        <v>826.5538300273759</v>
+        <v>570.4526592426272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1158.553337363321</v>
+        <v>901.3425442071327</v>
       </c>
       <c r="C8" t="n">
-        <v>789.5908204229097</v>
+        <v>901.3425442071327</v>
       </c>
       <c r="D8" t="n">
-        <v>789.5908204229097</v>
+        <v>901.3425442071327</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>901.3425442071327</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2308.758267664335</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>1935.292509403255</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="Y8" t="n">
-        <v>1545.153177427443</v>
+        <v>901.3425442071327</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4887,16 +4887,16 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>771.8570290615538</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="C10" t="n">
-        <v>771.8570290615538</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="D10" t="n">
         <v>621.7403896492181</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V10" t="n">
-        <v>1289.263749996532</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="W10" t="n">
-        <v>999.8465799595712</v>
+        <v>1150.400202197397</v>
       </c>
       <c r="X10" t="n">
-        <v>771.8570290615538</v>
+        <v>1024.181433622988</v>
       </c>
       <c r="Y10" t="n">
-        <v>771.8570290615538</v>
+        <v>803.3888544794578</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E13" t="n">
-        <v>365.9405071576781</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="F13" t="n">
-        <v>365.9405071576781</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>257.7977758426685</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>116.0859446848666</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5306,7 +5306,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5364,16 +5364,16 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003833</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5510,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>983.3403484614378</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5841,16 +5841,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>813.3497091711304</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5990,7 +5990,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,13 +6944,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7315,16 +7315,16 @@
         <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7400,22 +7400,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,13 +7555,13 @@
         <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,16 +7840,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>114.3555089013348</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.0073097921337</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>211.0329012241558</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>285.107364236622</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>44.35922236902593</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>128.212079024712</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>135.1220364129723</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>59.21924749803978</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>199.9223080965413</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>126.7587027673772</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-2.009503802257291e-13</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-3.197442310920451e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758987</v>
+        <v>229059.6437758985</v>
       </c>
       <c r="C2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="E2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="F2" t="n">
         <v>262322.6448992519</v>
@@ -26329,16 +26329,16 @@
         <v>262322.644899252</v>
       </c>
       <c r="H2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="I2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="J2" t="n">
+        <v>262322.6448992519</v>
+      </c>
+      <c r="K2" t="n">
         <v>262322.644899252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>262322.6448992519</v>
       </c>
       <c r="L2" t="n">
         <v>262322.644899252</v>
@@ -26347,10 +26347,10 @@
         <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058925</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058925</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058923</v>
@@ -26375,7 +26375,7 @@
         <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>19427.71799363177</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67970.39961451512</v>
+        <v>67970.39961451515</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
@@ -26427,34 +26427,34 @@
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732011</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.312426731985</v>
+      </c>
+      <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="H4" t="n">
-        <v>8117.312426731985</v>
-      </c>
       <c r="I4" t="n">
-        <v>8117.312426732002</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731989</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732029</v>
+        <v>8117.312426731994</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982544</v>
+        <v>16108.17168982545</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982544</v>
+        <v>16108.17168982545</v>
       </c>
       <c r="P4" t="n">
         <v>16108.17168982544</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1046600.311854381</v>
+        <v>-1046890.919019227</v>
       </c>
       <c r="C6" t="n">
-        <v>39582.8025041837</v>
+        <v>39582.80250418367</v>
       </c>
       <c r="D6" t="n">
-        <v>39582.8025041837</v>
+        <v>39582.80250418372</v>
       </c>
       <c r="E6" t="n">
-        <v>-354402.6389759331</v>
+        <v>-354437.3769013688</v>
       </c>
       <c r="F6" t="n">
-        <v>153082.8026486128</v>
+        <v>153048.0647231771</v>
       </c>
       <c r="G6" t="n">
-        <v>153082.8026486129</v>
+        <v>153048.0647231772</v>
       </c>
       <c r="H6" t="n">
-        <v>153082.8026486128</v>
+        <v>153048.0647231772</v>
       </c>
       <c r="I6" t="n">
-        <v>153082.8026486129</v>
+        <v>153048.0647231772</v>
       </c>
       <c r="J6" t="n">
-        <v>-14522.37516136958</v>
+        <v>-14557.1130868054</v>
       </c>
       <c r="K6" t="n">
-        <v>153082.8026486128</v>
+        <v>153048.0647231772</v>
       </c>
       <c r="L6" t="n">
-        <v>153082.8026486129</v>
+        <v>153048.0647231772</v>
       </c>
       <c r="M6" t="n">
-        <v>20475.50891968612</v>
+        <v>20440.77099425049</v>
       </c>
       <c r="N6" t="n">
-        <v>128138.5696685199</v>
+        <v>128138.5696685198</v>
       </c>
       <c r="O6" t="n">
         <v>147566.2876621516</v>
       </c>
       <c r="P6" t="n">
-        <v>147566.2876621515</v>
+        <v>147566.2876621514</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>337.5711477032359</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>214.1189323044407</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.08884974724847</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>130.3463900603839</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>313.9641043211993</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>128.7826126448085</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>104.9246860586888</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27825,16 +27825,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>33.08730729508022</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>69.39352507056975</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>343.557413686803</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>230.7333653634279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>100.7530745003717</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>556.7959610899863</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32716,7 +32716,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>364.0350380248671</v>
       </c>
       <c r="Q3" t="n">
-        <v>278.4880321229883</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35264,10 +35264,10 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>546.4575832202787</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>425.454249006653</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096336</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191305</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111712</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
         <v>418.6266618111712</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
